--- a/Finflux Automation Excels/Client/4491-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
+++ b/Finflux Automation Excels/Client/4491-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="NewLoanInput" sheetId="14" r:id="rId5"/>
     <sheet name="Summary" sheetId="16" r:id="rId6"/>
     <sheet name="Repayment schedule" sheetId="17" r:id="rId7"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId8"/>
-    <sheet name="Repay1" sheetId="23" r:id="rId9"/>
-    <sheet name="Charges" sheetId="25" r:id="rId10"/>
-    <sheet name="Modify Transaction" sheetId="24" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId12"/>
+    <sheet name="Modify Transaction1" sheetId="27" r:id="rId8"/>
+    <sheet name="Transactions" sheetId="18" r:id="rId9"/>
+    <sheet name="Repay1" sheetId="23" r:id="rId10"/>
+    <sheet name="Charges" sheetId="25" r:id="rId11"/>
+    <sheet name="Modify Transaction" sheetId="24" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>submittedon</t>
   </si>
@@ -315,6 +316,15 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
@@ -325,10 +335,17 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -359,10 +376,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -442,26 +467,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,24 +495,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -499,14 +524,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,6 +1010,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="26">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="27">
+        <v>10150.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1013,7 +1082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1064,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -1715,7 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1809,12 +1880,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2006,28 +2078,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2090,11 +2162,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>1200</v>
+      <c r="A5" s="12">
+        <v>0</v>
       </c>
       <c r="B5" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -2102,11 +2174,11 @@
       <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
-        <v>1100</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1100</v>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2116,65 +2188,63 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="33"/>
+    <col min="3" max="3" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2205,6 +2275,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -2219,7 +2290,7 @@
       <c r="D3" s="28">
         <v>42013</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="12">
         <v>822.81</v>
       </c>
@@ -2233,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L3" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="M3" s="12">
         <v>0</v>
@@ -2248,6 +2319,7 @@
       <c r="O3" s="12">
         <v>0</v>
       </c>
+      <c r="P3" s="12"/>
       <c r="Q3" s="12">
         <v>0</v>
       </c>
@@ -2277,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -2292,8 +2364,9 @@
       <c r="O4" s="12">
         <v>0</v>
       </c>
+      <c r="P4" s="12"/>
       <c r="Q4" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -2321,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -2336,8 +2409,9 @@
       <c r="O5" s="12">
         <v>0</v>
       </c>
+      <c r="P5" s="12"/>
       <c r="Q5" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -2365,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -2380,8 +2454,9 @@
       <c r="O6" s="12">
         <v>0</v>
       </c>
+      <c r="P6" s="12"/>
       <c r="Q6" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -2409,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -2424,8 +2499,9 @@
       <c r="O7" s="12">
         <v>0</v>
       </c>
+      <c r="P7" s="12"/>
       <c r="Q7" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -2453,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -2468,8 +2544,9 @@
       <c r="O8" s="12">
         <v>0</v>
       </c>
+      <c r="P8" s="12"/>
       <c r="Q8" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2497,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2512,8 +2589,9 @@
       <c r="O9" s="12">
         <v>0</v>
       </c>
+      <c r="P9" s="12"/>
       <c r="Q9" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2541,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -2556,8 +2634,9 @@
       <c r="O10" s="12">
         <v>0</v>
       </c>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2585,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -2600,8 +2679,9 @@
       <c r="O11" s="12">
         <v>0</v>
       </c>
+      <c r="P11" s="12"/>
       <c r="Q11" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2629,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2644,8 +2724,9 @@
       <c r="O12" s="12">
         <v>0</v>
       </c>
+      <c r="P12" s="12"/>
       <c r="Q12" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2673,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -2688,8 +2769,9 @@
       <c r="O13" s="12">
         <v>0</v>
       </c>
+      <c r="P13" s="12"/>
       <c r="Q13" s="12">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2717,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
-        <v>945.85</v>
+        <v>845.85</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2732,8 +2814,54 @@
       <c r="O14" s="12">
         <v>0</v>
       </c>
+      <c r="P14" s="12"/>
       <c r="Q14" s="12">
-        <v>945.85</v>
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>5</v>
+      </c>
+      <c r="C15" s="28">
+        <v>42095</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2742,6 +2870,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -2854,43 +3024,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="26">
-        <v>42013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="27">
-        <v>10150.64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>